--- a/census_occ/data/raw/table-h1_h2.xlsx
+++ b/census_occ/data/raw/table-h1_h2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1txw01/GitHub/concordances/census_occ/references/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g1txw01/GitHub/concordances/census_occ/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66ECA9E-D0F3-4242-B378-FF249764D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AACDE-1E72-E245-B7CE-84D7A47E7111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="cgbwfmWKu3iyvOQrg7NXrUzHAXO4x39uQVJEuw0wrL+LvV8gfBPoaCragQ2u/r6/Xrrtg4lok3H9hJSNjaKcTA==" workbookSaltValue="MUSnDY2isW6OFBA2zyh8LQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="794" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="11" r:id="rId1"/>
@@ -12259,7 +12259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L707"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>35</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
         <v>2531</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="16" t="s">
         <v>255</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="16" t="s">
         <v>303</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="16" t="s">
         <v>378</v>
       </c>
@@ -27688,8 +27688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N707"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -50254,7 +50254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I702"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A121" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50289,7 +50289,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>560</v>
       </c>
@@ -50539,7 +50539,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>598</v>
       </c>
@@ -50700,7 +50700,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>619</v>
       </c>
@@ -50723,7 +50723,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>622</v>
       </c>
@@ -51143,7 +51143,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>679</v>
       </c>
@@ -51166,7 +51166,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>682</v>
       </c>
@@ -51304,7 +51304,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>712</v>
       </c>
@@ -51442,7 +51442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>718</v>
       </c>
@@ -51739,7 +51739,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>757</v>
       </c>
@@ -51811,7 +51811,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>768</v>
       </c>
@@ -51903,7 +51903,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>785</v>
       </c>
@@ -52056,7 +52056,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>802</v>
       </c>
@@ -52281,7 +52281,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>829</v>
       </c>
@@ -52352,7 +52352,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>841</v>
       </c>
@@ -52559,7 +52559,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>869</v>
       </c>
@@ -53272,7 +53272,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>966</v>
       </c>
@@ -53746,7 +53746,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>1034</v>
       </c>
@@ -53838,7 +53838,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>1045</v>
       </c>
@@ -54131,7 +54131,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>1086</v>
       </c>
@@ -54229,7 +54229,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>1102</v>
       </c>
@@ -54460,7 +54460,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>1132</v>
       </c>
@@ -54688,7 +54688,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>1165</v>
       </c>
@@ -54803,7 +54803,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>1181</v>
       </c>
@@ -54942,7 +54942,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>1199</v>
       </c>
@@ -55550,7 +55550,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>1272</v>
       </c>
@@ -55602,7 +55602,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>1280</v>
       </c>
@@ -55648,7 +55648,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>1287</v>
       </c>
@@ -55738,7 +55738,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>1305</v>
       </c>
@@ -55898,7 +55898,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>1326</v>
       </c>
@@ -55921,7 +55921,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>1329</v>
       </c>
@@ -55970,7 +55970,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>1337</v>
       </c>
@@ -56045,7 +56045,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>1347</v>
       </c>
@@ -56268,7 +56268,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>1380</v>
       </c>
@@ -56337,7 +56337,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>1389</v>
       </c>
@@ -56360,7 +56360,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>1392</v>
       </c>
@@ -56711,7 +56711,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>1440</v>
       </c>
@@ -57345,7 +57345,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>1528</v>
       </c>
@@ -57558,7 +57558,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>1555</v>
       </c>
@@ -57604,7 +57604,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>1561</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>1564</v>
       </c>
@@ -57852,7 +57852,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>1600</v>
       </c>
@@ -57898,7 +57898,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>1604</v>
       </c>
@@ -57921,7 +57921,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>1607</v>
       </c>
@@ -58151,7 +58151,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>1638</v>
       </c>
@@ -58174,7 +58174,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>1641</v>
       </c>
@@ -58335,7 +58335,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>1661</v>
       </c>
@@ -58381,7 +58381,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>1667</v>
       </c>
@@ -58453,7 +58453,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>1677</v>
       </c>
@@ -58706,7 +58706,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>1710</v>
       </c>
@@ -59164,7 +59164,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
         <v>1771</v>
       </c>
@@ -59423,7 +59423,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="6" t="s">
         <v>1814</v>
       </c>
@@ -59561,7 +59561,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="6" t="s">
         <v>1832</v>
       </c>
@@ -59843,7 +59843,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="6" t="s">
         <v>1869</v>
       </c>
@@ -59889,7 +59889,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
         <v>1874</v>
       </c>
@@ -59958,7 +59958,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
         <v>1885</v>
       </c>
@@ -60036,7 +60036,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="6" t="s">
         <v>1894</v>
       </c>
@@ -60180,7 +60180,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="6" t="s">
         <v>1912</v>
       </c>
@@ -60523,7 +60523,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="6" t="s">
         <v>1959</v>
       </c>
@@ -60546,7 +60546,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="6" t="s">
         <v>1960</v>
       </c>
@@ -60912,7 +60912,7 @@
       </c>
       <c r="I522" s="12"/>
     </row>
-    <row r="523" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="6" t="s">
         <v>2005</v>
       </c>
@@ -61128,7 +61128,7 @@
       </c>
       <c r="I531" s="12"/>
     </row>
-    <row r="532" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="6" t="s">
         <v>2033</v>
       </c>
@@ -61152,7 +61152,7 @@
       </c>
       <c r="I532" s="12"/>
     </row>
-    <row r="533" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="6" t="s">
         <v>2036</v>
       </c>
@@ -61224,7 +61224,7 @@
       </c>
       <c r="I535" s="12"/>
     </row>
-    <row r="536" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A536" s="6" t="s">
         <v>2045</v>
       </c>
@@ -61321,7 +61321,7 @@
       </c>
       <c r="I539" s="12"/>
     </row>
-    <row r="540" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
         <v>2057</v>
       </c>
@@ -61417,7 +61417,7 @@
       </c>
       <c r="I543" s="12"/>
     </row>
-    <row r="544" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
         <v>2068</v>
       </c>
@@ -61441,7 +61441,7 @@
       </c>
       <c r="I544" s="12"/>
     </row>
-    <row r="545" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="6" t="s">
         <v>2071</v>
       </c>
@@ -61465,7 +61465,7 @@
       </c>
       <c r="I545" s="12"/>
     </row>
-    <row r="546" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="6" t="s">
         <v>2074</v>
       </c>
@@ -61585,7 +61585,7 @@
       </c>
       <c r="I550" s="12"/>
     </row>
-    <row r="551" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="6" t="s">
         <v>2089</v>
       </c>
@@ -61660,7 +61660,7 @@
       </c>
       <c r="I553" s="4"/>
     </row>
-    <row r="554" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="6" t="s">
         <v>2097</v>
       </c>
@@ -61684,7 +61684,7 @@
       </c>
       <c r="I554" s="12"/>
     </row>
-    <row r="555" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="6" t="s">
         <v>2100</v>
       </c>
@@ -61952,7 +61952,7 @@
       </c>
       <c r="I565" s="12"/>
     </row>
-    <row r="566" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="6" t="s">
         <v>2135</v>
       </c>
@@ -62108,7 +62108,7 @@
       </c>
       <c r="I571" s="12"/>
     </row>
-    <row r="572" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A572" s="6" t="s">
         <v>2158</v>
       </c>
@@ -62132,7 +62132,7 @@
       </c>
       <c r="I572" s="12"/>
     </row>
-    <row r="573" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A573" s="6" t="s">
         <v>2161</v>
       </c>
@@ -62261,7 +62261,7 @@
       </c>
       <c r="I577" s="12"/>
     </row>
-    <row r="578" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="6" t="s">
         <v>2177</v>
       </c>
@@ -62285,7 +62285,7 @@
       </c>
       <c r="I578" s="12"/>
     </row>
-    <row r="579" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="6" t="s">
         <v>2180</v>
       </c>
@@ -62516,7 +62516,7 @@
       </c>
       <c r="I587" s="12"/>
     </row>
-    <row r="588" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" s="6" t="s">
         <v>2209</v>
       </c>
@@ -62639,7 +62639,7 @@
       </c>
       <c r="I592" s="12"/>
     </row>
-    <row r="593" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" s="6" t="s">
         <v>2224</v>
       </c>
@@ -62792,7 +62792,7 @@
       </c>
       <c r="I598" s="4"/>
     </row>
-    <row r="599" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A599" s="6" t="s">
         <v>2245</v>
       </c>
@@ -62895,7 +62895,7 @@
       </c>
       <c r="I602" s="4"/>
     </row>
-    <row r="603" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="6" t="s">
         <v>2258</v>
       </c>
@@ -62949,7 +62949,7 @@
       </c>
       <c r="I604" s="4"/>
     </row>
-    <row r="605" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A605" s="6" t="s">
         <v>2264</v>
       </c>
@@ -63024,7 +63024,7 @@
       </c>
       <c r="I607" s="4"/>
     </row>
-    <row r="608" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A608" s="6" t="s">
         <v>2273</v>
       </c>
@@ -63126,7 +63126,7 @@
       </c>
       <c r="I611" s="12"/>
     </row>
-    <row r="612" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="6" t="s">
         <v>2286</v>
       </c>
@@ -63294,7 +63294,7 @@
       </c>
       <c r="I618" s="12"/>
     </row>
-    <row r="619" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A619" s="6" t="s">
         <v>2307</v>
       </c>
@@ -63342,7 +63342,7 @@
       </c>
       <c r="I620" s="12"/>
     </row>
-    <row r="621" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="6" t="s">
         <v>2313</v>
       </c>
@@ -63366,7 +63366,7 @@
       </c>
       <c r="I621" s="4"/>
     </row>
-    <row r="622" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" s="6" t="s">
         <v>2316</v>
       </c>
@@ -63414,7 +63414,7 @@
       </c>
       <c r="I623" s="4"/>
     </row>
-    <row r="624" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="6" t="s">
         <v>2323</v>
       </c>
@@ -63486,7 +63486,7 @@
       </c>
       <c r="I626" s="12"/>
     </row>
-    <row r="627" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="6" t="s">
         <v>2332</v>
       </c>
@@ -63534,7 +63534,7 @@
       </c>
       <c r="I628" s="12"/>
     </row>
-    <row r="629" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A629" s="6" t="s">
         <v>2338</v>
       </c>
@@ -63558,7 +63558,7 @@
       </c>
       <c r="I629" s="12"/>
     </row>
-    <row r="630" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A630" s="6" t="s">
         <v>2341</v>
       </c>
@@ -63657,7 +63657,7 @@
       </c>
       <c r="I633" s="12"/>
     </row>
-    <row r="634" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A634" s="6" t="s">
         <v>2355</v>
       </c>
@@ -63810,7 +63810,7 @@
       </c>
       <c r="I640" s="12"/>
     </row>
-    <row r="641" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A641" s="6" t="s">
         <v>2373</v>
       </c>
@@ -64072,7 +64072,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A656" s="6" t="s">
         <v>2409</v>
       </c>
@@ -64121,7 +64121,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A658" s="6" t="s">
         <v>2408</v>
       </c>
@@ -64239,7 +64239,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A663" s="6" t="s">
         <v>2428</v>
       </c>
@@ -64288,7 +64288,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="6" t="s">
         <v>2436</v>
       </c>
@@ -64429,7 +64429,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A672" s="6" t="s">
         <v>2458</v>
       </c>
@@ -64572,7 +64572,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" s="6" t="s">
         <v>2470</v>
       </c>
@@ -64765,7 +64765,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="6" t="s">
         <v>2496</v>
       </c>
